--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumony in the childhood</t>
+    <t xml:space="preserve">Pneumonia in childhood</t>
   </si>
   <si>
     <t xml:space="preserve">Asthma</t>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,21 +89,62 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -132,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,15 +186,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,10 +234,10 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.69"/>
@@ -191,795 +248,826 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>2023021316152</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>186</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="7" t="n">
         <v>83</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>2023021414502</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>151</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>2023021713052</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>165</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>2023022016102</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>2023022018002</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="6" t="n">
         <v>2023022210002</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="6" t="n">
         <v>2023022210352</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="7" t="n">
         <v>61</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="6" t="n">
         <v>2023022211002</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>181</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="6" t="n">
         <v>2023022212002</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>182</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="6" t="n">
         <v>2023022213102</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="6" t="n">
         <v>2023022710002</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
         <v>176</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="6" t="n">
         <v>2023030113002</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="n">
         <v>159</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="6" t="n">
         <v>2023032712502</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="6" t="n">
         <v>2023030717301</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="6" t="n">
         <v>2023030718301</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="6" t="n">
         <v>2023022410501</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="6" t="n">
         <v>2023022412001</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>190</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="6" t="n">
         <v>2023022311301</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="7" t="n">
         <v>185</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="6" t="n">
         <v>2023022310221</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="6" t="n">
         <v>2023022309391</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="7" t="n">
         <v>189</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="6" t="n">
         <v>2023031010301</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="n">
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>184</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="6" t="n">
         <v>2023022217141</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
         <v>174</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="6" t="n">
         <v>2023022218451</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="n">
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
         <v>173</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="6" t="n">
         <v>2023022219451</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="n">
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="6" t="n">
         <v>2023030117431</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="n">
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="6" t="n">
         <v>2023030118491</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="n">
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="6" t="n">
         <v>2023030317401</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="7" t="n">
         <v>154</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="7" t="n">
         <v>82</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="6" t="n">
         <v>2023030319441</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="n">
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <v>163</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="6" t="n">
         <v>2023030818501</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="n">
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="7" t="n">
         <v>106</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="6" t="n">
         <v>2023031519451</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="n">
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="6" t="n">
         <v>2023240317151</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="n">
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="n">
         <v>157</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="6" t="n">
         <v>2023042619451</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="n">
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="n">
         <v>172</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="6" t="n">
         <v>2023050318481</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="n">
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="n">
         <v>155</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
